--- a/test.xlsx
+++ b/test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>КОНТРОЛЬНЫЙ ТАЛОН</t>
   </si>
@@ -26,7 +26,7 @@
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
   <si>
-    <t>sss</t>
+    <t>70987</t>
   </si>
   <si>
     <t>ВАУЧЕР-VOUCHER №</t>
@@ -38,58 +38,55 @@
     <t>Кратность визы</t>
   </si>
   <si>
-    <t>rrrr</t>
+    <t>9870987098</t>
   </si>
   <si>
     <t>Гражданство</t>
   </si>
   <si>
-    <t>ccc</t>
+    <t>8709870</t>
   </si>
   <si>
     <t>Въезд с</t>
   </si>
   <si>
-    <t>2019-02-09</t>
-  </si>
-  <si>
     <t>Выезд до</t>
   </si>
   <si>
-    <t>2019-01-29</t>
-  </si>
-  <si>
     <t>Фамилия</t>
   </si>
   <si>
-    <t>fdfdf/fff</t>
+    <t>9870987/9870870897</t>
   </si>
   <si>
     <t>Имя, Отчество (имена)</t>
   </si>
   <si>
-    <t>sadfsd/ddd</t>
+    <t>0870987098/7098709870</t>
   </si>
   <si>
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>09.02.2019</t>
+    <t>08.07.0987</t>
   </si>
   <si>
     <t>Пол</t>
   </si>
   <si>
+    <t>09870</t>
+  </si>
+  <si>
     <t>Номер паспорта</t>
   </si>
   <si>
-    <t>rrr</t>
+    <t>09870987</t>
   </si>
   <si>
     <t>Цель поездки</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>98709</t>
   </si>
   <si>
     <t>Маршрут и места размещения город</t>
@@ -168,7 +165,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <name val="Arial Cyr"/>
@@ -363,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -461,6 +460,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,14 +1005,14 @@
       <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="50" t="n">
+        <v>-668172</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>12</v>
+      <c r="F9" s="50" t="n">
+        <v>-690452</v>
       </c>
       <c r="H9" s="42" t="n"/>
       <c r="I9" s="10" t="n"/>
@@ -1023,7 +1025,7 @@
         <v/>
       </c>
       <c r="N9" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" s="44">
         <f>REPT(F9,1)</f>
@@ -1057,15 +1059,15 @@
     <row customHeight="1" ht="16.5" r="11" spans="1:19">
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="10" t="n"/>
       <c r="J11" s="8" t="n"/>
       <c r="K11" s="34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="44">
         <f>REPT(C11,1)</f>
@@ -1098,15 +1100,15 @@
     <row customHeight="1" ht="16.5" r="13" spans="1:19">
       <c r="A13" s="8" t="n"/>
       <c r="B13" s="34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="18" t="n"/>
       <c r="J13" s="8" t="n"/>
       <c r="K13" s="34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" s="44">
         <f>REPT(E13,1)</f>
@@ -1136,28 +1138,28 @@
     <row customHeight="1" ht="16.5" r="15" spans="1:19">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="G15" s="43" t="s">
         <v>18</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>2</v>
       </c>
       <c r="I15" s="10" t="n"/>
       <c r="J15" s="8" t="n"/>
       <c r="K15" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15" s="44">
         <f>REPT(D15,1)</f>
         <v/>
       </c>
       <c r="O15" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="41">
         <f>REPT(G15,1)</f>
@@ -1190,10 +1192,10 @@
     <row customHeight="1" ht="16.5" r="17" spans="1:19">
       <c r="A17" s="8" t="n"/>
       <c r="B17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>20</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>21</v>
       </c>
       <c r="F17" s="34" t="n"/>
       <c r="G17" s="34" t="n"/>
@@ -1201,7 +1203,7 @@
       <c r="I17" s="10" t="n"/>
       <c r="J17" s="8" t="n"/>
       <c r="K17" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="42">
         <f>REPT(D17,1)</f>
@@ -1237,10 +1239,10 @@
     <row customHeight="1" ht="16.5" r="19" spans="1:19">
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>22</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>23</v>
       </c>
       <c r="F19" s="34" t="n"/>
       <c r="G19" s="34" t="n"/>
@@ -1248,7 +1250,7 @@
       <c r="I19" s="10" t="n"/>
       <c r="J19" s="8" t="n"/>
       <c r="K19" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="44">
         <f>REPT(D19,1)</f>
@@ -1284,15 +1286,15 @@
     <row customHeight="1" ht="16.5" r="21" spans="1:19">
       <c r="A21" s="8" t="n"/>
       <c r="B21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>25</v>
       </c>
       <c r="I21" s="10" t="n"/>
       <c r="J21" s="8" t="n"/>
       <c r="K21" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" s="38">
         <f>REPT(F21,1)</f>
@@ -1304,7 +1306,7 @@
     <row customHeight="1" ht="16.5" r="22" spans="1:19">
       <c r="A22" s="8" t="n"/>
       <c r="B22" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="10" t="n"/>
       <c r="J22" s="8" t="n"/>
@@ -1339,15 +1341,15 @@
     <row customHeight="1" ht="16.5" r="24" spans="1:19">
       <c r="A24" s="8" t="n"/>
       <c r="B24" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>28</v>
       </c>
       <c r="I24" s="10" t="n"/>
       <c r="J24" s="8" t="n"/>
       <c r="K24" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="45">
         <f>REPT(D24,1)</f>
@@ -1359,13 +1361,13 @@
     <row customHeight="1" ht="16.5" r="25" spans="1:19">
       <c r="A25" s="8" t="n"/>
       <c r="B25" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="34" t="n"/>
       <c r="I25" s="10" t="n"/>
       <c r="J25" s="8" t="n"/>
       <c r="K25" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="34" t="n"/>
       <c r="R25" s="10" t="n"/>
@@ -1374,7 +1376,7 @@
     <row customHeight="1" ht="16.5" r="26" spans="1:19">
       <c r="A26" s="8" t="n"/>
       <c r="B26" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="34" t="n"/>
       <c r="I26" s="10" t="n"/>
@@ -1390,7 +1392,7 @@
     <row customHeight="1" ht="16.5" r="27" spans="1:19">
       <c r="A27" s="8" t="n"/>
       <c r="B27" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="34" t="n"/>
       <c r="I27" s="10" t="n"/>
@@ -1406,11 +1408,11 @@
     <row customHeight="1" ht="20.25" r="28" spans="1:19" thickBot="1">
       <c r="A28" s="8" t="n"/>
       <c r="B28" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
@@ -1419,11 +1421,11 @@
       <c r="I28" s="30" t="n"/>
       <c r="J28" s="31" t="n"/>
       <c r="K28" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L28" s="28" t="n"/>
       <c r="M28" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="26" t="n"/>
       <c r="O28" s="26" t="n"/>
@@ -1456,15 +1458,15 @@
     <row customHeight="1" ht="16.5" r="30" spans="1:19">
       <c r="A30" s="8" t="n"/>
       <c r="B30" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>34</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>35</v>
       </c>
       <c r="I30" s="10" t="n"/>
       <c r="J30" s="8" t="n"/>
       <c r="K30" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N30" s="41">
         <f>REPT(E30,1)</f>
@@ -1476,7 +1478,7 @@
     <row customHeight="1" ht="16.5" r="31" spans="1:19">
       <c r="A31" s="8" t="n"/>
       <c r="B31" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="10" t="n"/>
       <c r="J31" s="8" t="n"/>
@@ -1490,7 +1492,7 @@
     <row customHeight="1" ht="16.5" r="32" spans="1:19">
       <c r="A32" s="8" t="n"/>
       <c r="B32" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="10" t="n"/>
       <c r="J32" s="8" t="n"/>
@@ -1504,7 +1506,7 @@
     <row customHeight="1" ht="16.5" r="33" spans="1:19">
       <c r="A33" s="8" t="n"/>
       <c r="B33" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="10" t="n"/>
       <c r="J33" s="8" t="n"/>
@@ -1518,7 +1520,7 @@
     <row customHeight="1" ht="16.5" r="34" spans="1:19">
       <c r="A34" s="8" t="n"/>
       <c r="B34" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="10" t="n"/>
       <c r="J34" s="8" t="n"/>
@@ -1532,12 +1534,12 @@
     <row customHeight="1" ht="16.5" r="35" spans="1:19">
       <c r="A35" s="8" t="n"/>
       <c r="B35" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="10" t="n"/>
       <c r="J35" s="8" t="n"/>
       <c r="K35" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R35" s="10" t="n"/>
       <c r="S35" s="10" t="n"/>
@@ -1545,12 +1547,12 @@
     <row customHeight="1" ht="16.5" r="36" spans="1:19">
       <c r="A36" s="8" t="n"/>
       <c r="B36" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36" s="10" t="n"/>
       <c r="J36" s="8" t="n"/>
       <c r="K36" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R36" s="10" t="n"/>
       <c r="S36" s="10" t="n"/>
@@ -1558,7 +1560,7 @@
     <row customHeight="1" ht="16.5" r="37" spans="1:19">
       <c r="A37" s="8" t="n"/>
       <c r="B37" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="34" t="n"/>
       <c r="D37" s="34" t="n"/>
@@ -1569,7 +1571,7 @@
       <c r="I37" s="10" t="n"/>
       <c r="J37" s="8" t="n"/>
       <c r="K37" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L37" s="34" t="n"/>
       <c r="M37" s="34" t="n"/>
@@ -1584,27 +1586,27 @@
       <c r="A38" s="8" t="n"/>
       <c r="B38" s="34" t="n"/>
       <c r="C38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="37" t="n"/>
       <c r="F38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>45</v>
       </c>
       <c r="I38" s="10" t="n"/>
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="34" t="n"/>
       <c r="L38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38" s="37" t="n"/>
       <c r="O38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="Q38" s="34" t="s">
-        <v>45</v>
       </c>
       <c r="R38" s="10" t="n"/>
       <c r="S38" s="10" t="n"/>
@@ -1617,7 +1619,7 @@
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="34" t="n"/>
       <c r="H39" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="1" t="n"/>
@@ -1627,7 +1629,7 @@
       <c r="N39" s="2" t="n"/>
       <c r="O39" s="34" t="n"/>
       <c r="Q39" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="n"/>
@@ -1636,11 +1638,10 @@
       <c r="A40" s="8" t="n"/>
       <c r="B40" s="34" t="n"/>
       <c r="C40" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="35">
-        <f>TODAY()</f>
-        <v/>
+        <v>46</v>
+      </c>
+      <c r="D40" s="35" t="n">
+        <v>2552536</v>
       </c>
       <c r="F40" s="34" t="n"/>
       <c r="H40" s="34" t="n"/>
@@ -1648,11 +1649,10 @@
       <c r="J40" s="8" t="n"/>
       <c r="K40" s="34" t="n"/>
       <c r="L40" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M40" s="35">
-        <f>TODAY()</f>
-        <v/>
+        <v>46</v>
+      </c>
+      <c r="M40" s="35" t="n">
+        <v>2552536</v>
       </c>
       <c r="O40" s="34" t="n"/>
       <c r="Q40" s="34" t="n"/>
